--- a/data/MSprog_toydata.xlsx
+++ b/data/MSprog_toydata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmontobbio/code/DATA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unigeit-my.sharepoint.com/personal/noemi_montobbio_unige_it/Documents/DATA/MS-toydata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C507C211-D802-8842-B3FB-08F2E624CF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{0735295F-EBB6-3147-8CD4-DBE8B2F66519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{417862CD-B414-5C45-87FA-B76977C6FD64}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{943C05E5-5E7A-BA4E-A364-564D85E80AF6}"/>
+    <workbookView xWindow="2860" yWindow="1960" windowWidth="22260" windowHeight="13640" xr2:uid="{943C05E5-5E7A-BA4E-A364-564D85E80AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="visits" sheetId="1" r:id="rId1"/>
@@ -73,11 +73,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,10 +96,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -242,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -384,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -392,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0CCFB8-D016-0A4C-A58B-C7331717A1C7}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +433,7 @@
         <v>4.5</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -442,7 +447,7 @@
         <v>4.5</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -456,7 +461,7 @@
         <v>4.5</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -470,7 +475,7 @@
         <v>4.5</v>
       </c>
       <c r="D5">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,7 +489,7 @@
         <v>5.5</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -498,7 +503,7 @@
         <v>5.5</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -512,7 +517,7 @@
         <v>5.5</v>
       </c>
       <c r="D8">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,7 +531,7 @@
         <v>5.5</v>
       </c>
       <c r="D9">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -778,7 +783,7 @@
         <v>4.5</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,7 +797,7 @@
         <v>3.5</v>
       </c>
       <c r="D28">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -806,7 +811,7 @@
         <v>3.5</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -820,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -834,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -848,7 +853,7 @@
         <v>5.5</v>
       </c>
       <c r="D32">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -862,53 +867,232 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44361</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44451</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44501</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>58</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44578</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+      <c r="D37">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44681</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>59</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44748</v>
+      </c>
+      <c r="C39">
+        <v>5.5</v>
+      </c>
+      <c r="D39">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44874</v>
+      </c>
+      <c r="C40">
+        <v>5.5</v>
+      </c>
+      <c r="D40">
+        <v>54</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44910</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C42">
+        <v>5.5</v>
+      </c>
+      <c r="D42">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44487</v>
+      </c>
+      <c r="C43">
+        <v>5.5</v>
+      </c>
+      <c r="D43">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C44">
+        <v>5.5</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44607</v>
+      </c>
+      <c r="C45">
+        <v>4.5</v>
+      </c>
+      <c r="D45">
+        <v>64</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44807</v>
+      </c>
+      <c r="C46">
+        <v>4.5</v>
+      </c>
+      <c r="D46">
+        <v>63</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44839</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>60</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44917</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44978</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34402647-452C-0345-86DC-C118F6D6A291}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,6 +1141,14 @@
         <v>44896</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
